--- a/data/trans_dic/P16A05-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A05-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,46%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0,95; 4,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>1,75; 6,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>1,36; 5,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>4,03; 10,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>4,19; 10,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>2,58; 5,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>3,1; 6,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>3,43; 7,21</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>2,38; 4,94</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,2%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>1,27; 4,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>2,01; 6,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>1,88; 5,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>4,32; 9,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>4,6; 8,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>5,96; 11,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>5,06; 9,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>7,89; 12,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,43; 5,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,67; 7,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,02; 6,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>6,68; 9,96</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,35%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>0,91; 3,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>1,85; 6,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>1,48; 5,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>2,84; 7,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,0; 1,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>1,18; 4,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>3,68; 8,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>5,87; 10,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,45; 2,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,86; 4,83</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>3,08; 6,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>5,08; 8,19</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,28%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,3; 3,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>2,74; 6,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>2,48; 6,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>1,08; 5,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>2,25; 6,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>7,4; 11,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>5,79; 11,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>2,5; 5,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>1,57; 4,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>5,42; 8,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>4,82; 8,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>2,22; 4,8</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,85%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>0,87; 4,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>1,91; 7,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>2,27; 8,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>1,24; 5,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>3,21; 9,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>11,14; 21,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>9,21; 18,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>7,94; 12,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>2,43; 6,39</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>7,34; 12,85</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>6,2; 11,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>5,28; 8,66</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,06%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0,0; 2,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>1,09; 5,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>1,47; 6,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>3,35; 8,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>1,53; 5,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>3,14; 8,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>2,97; 8,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>8,46; 13,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,11; 3,54</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>2,54; 6,12</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>2,83; 6,55</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>6,5; 9,96</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,23%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,53; 4,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,91; 4,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>2,22; 5,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>2,57; 5,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>3,56; 7,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>2,76; 5,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>5,46; 9,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>5,02; 10,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>2,8; 4,95</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,58; 4,68</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>4,17; 6,8</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,66; 7,58</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,99%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>3,09; 6,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>1,51; 4,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>2,12; 4,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>3,54; 6,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>5,73; 9,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>5,32; 8,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>6,52; 10,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>9,33; 14,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>4,93; 7,46</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>3,99; 6,25</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>4,72; 7,3</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>6,72; 9,64</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,62%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,11; 3,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,66; 4,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,94; 4,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,81; 5,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,53; 6,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,26; 8,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,78; 8,59</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>7,61; 9,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,49; 4,43</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>4,75; 5,93</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,0; 6,15</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>6,07; 7,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A05-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,29%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,71; 9,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 5,21</t>
+          <t>1,25; 4,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,4; 12,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,58; 5,83</t>
+          <t>2,52; 5,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,45; 10,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,94</t>
+          <t>2,26; 4,81</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>8,0%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,32; 9,32</t>
+          <t>4,19; 9,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,89; 12,23</t>
+          <t>7,84; 12,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,68; 9,96</t>
+          <t>6,49; 9,74</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,23%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 7,3</t>
+          <t>2,8; 7,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,87; 10,54</t>
+          <t>5,78; 10,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 8,19</t>
+          <t>4,99; 8,07</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>2,9%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 6,21</t>
+          <t>1,1; 4,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 5,86</t>
+          <t>1,07; 5,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,4; 11,99</t>
+          <t>7,67; 13,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,89</t>
+          <t>1,67; 4,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,42; 8,32</t>
+          <t>4,68; 8,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,8</t>
+          <t>1,8; 4,34</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>6,88%</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,94; 12,93</t>
+          <t>8,04; 13,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,28; 8,66</t>
+          <t>5,33; 8,72</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>7,92%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,35; 8,24</t>
+          <t>3,26; 8,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,46; 13,91</t>
+          <t>8,39; 13,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,5; 9,96</t>
+          <t>6,41; 9,8</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>5,61%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,72</t>
+          <t>2,49; 5,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,02; 10,3</t>
+          <t>3,4; 9,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,66; 7,58</t>
+          <t>3,5; 7,02</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>7,0%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,54; 6,65</t>
+          <t>1,55; 5,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,33; 14,19</t>
+          <t>9,29; 13,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,72; 9,64</t>
+          <t>4,45; 8,81</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,08%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,81; 5,23</t>
+          <t>3,16; 4,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,61; 9,55</t>
+          <t>6,52; 9,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>6,07; 7,26</t>
+          <t>5,23; 6,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A05-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,47</t>
+          <t>0,97; 4,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,71; 9,84</t>
+          <t>3,7; 10,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 6,22</t>
+          <t>1,85; 6,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,99</t>
+          <t>1,31; 5,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,03; 10,24</t>
+          <t>4,35; 11,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,4; 12,74</t>
+          <t>5,51; 12,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,19; 10,36</t>
+          <t>4,12; 10,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,65</t>
+          <t>2,42; 5,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,1; 6,86</t>
+          <t>2,88; 6,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,45; 10,23</t>
+          <t>5,32; 9,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 7,21</t>
+          <t>3,33; 7,36</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 4,81</t>
+          <t>2,22; 4,83</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,12</t>
+          <t>1,38; 4,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 6,39</t>
+          <t>1,96; 6,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,1</t>
+          <t>1,71; 5,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 9,04</t>
+          <t>4,12; 9,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,6; 8,98</t>
+          <t>4,64; 9,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 11,2</t>
+          <t>6,03; 11,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,06; 9,5</t>
+          <t>4,97; 9,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,84; 12,09</t>
+          <t>7,65; 11,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 5,99</t>
+          <t>3,43; 6,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 7,92</t>
+          <t>4,65; 7,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 6,78</t>
+          <t>3,91; 6,66</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,49; 9,74</t>
+          <t>6,52; 9,76</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,9</t>
+          <t>0,66; 3,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,9</t>
+          <t>2,08; 7,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 5,65</t>
+          <t>1,61; 5,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 7,23</t>
+          <t>2,76; 7,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,56</t>
+          <t>0,0; 1,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,54</t>
+          <t>1,19; 4,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 8,47</t>
+          <t>3,54; 8,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,78; 10,36</t>
+          <t>5,61; 10,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,0</t>
+          <t>0,46; 2,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,83</t>
+          <t>1,84; 4,98</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 6,17</t>
+          <t>3,04; 6,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 8,07</t>
+          <t>4,97; 8,22</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,37</t>
+          <t>0,29; 3,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,89</t>
+          <t>1,0; 4,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,82</t>
+          <t>2,53; 7,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 5,85</t>
+          <t>0,93; 5,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,25; 6,18</t>
+          <t>2,3; 6,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,67; 13,86</t>
+          <t>7,59; 13,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,79; 11,61</t>
+          <t>6,0; 11,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,94</t>
+          <t>1,76; 5,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,07</t>
+          <t>1,64; 4,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,68; 8,5</t>
+          <t>4,74; 8,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,82; 8,53</t>
+          <t>4,82; 8,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,34</t>
+          <t>1,92; 4,35</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,64</t>
+          <t>0,48; 5,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 7,71</t>
+          <t>1,97; 7,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 8,2</t>
+          <t>2,18; 7,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,53</t>
+          <t>1,33; 4,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,21; 9,97</t>
+          <t>3,2; 9,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,14; 21,35</t>
+          <t>11,28; 21,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,21; 18,34</t>
+          <t>9,08; 18,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,04; 13,04</t>
+          <t>8,32; 13,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,43; 6,39</t>
+          <t>2,5; 6,17</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,34; 12,85</t>
+          <t>7,37; 13,2</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,2; 11,61</t>
+          <t>6,45; 11,87</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,33; 8,72</t>
+          <t>5,34; 8,5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,47</t>
+          <t>0,0; 2,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,09; 5,28</t>
+          <t>1,09; 4,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,47; 6,28</t>
+          <t>1,41; 6,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,26; 8,08</t>
+          <t>3,23; 7,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,53; 5,88</t>
+          <t>1,48; 5,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,14; 8,64</t>
+          <t>2,92; 8,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,97; 8,33</t>
+          <t>2,92; 8,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,39; 13,83</t>
+          <t>8,25; 13,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,54</t>
+          <t>1,09; 3,53</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,12</t>
+          <t>2,61; 6,38</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,55</t>
+          <t>2,72; 6,38</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,41; 9,8</t>
+          <t>6,39; 10,02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,23</t>
+          <t>1,51; 4,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,78</t>
+          <t>1,86; 4,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,04</t>
+          <t>2,3; 5,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,52</t>
+          <t>2,5; 5,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,56; 7,12</t>
+          <t>3,47; 6,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,77</t>
+          <t>2,83; 6,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,46; 9,62</t>
+          <t>5,25; 9,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,4; 9,76</t>
+          <t>3,54; 9,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,8; 4,95</t>
+          <t>2,92; 5,04</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,58; 4,68</t>
+          <t>2,68; 4,99</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,17; 6,8</t>
+          <t>4,27; 6,83</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,5; 7,02</t>
+          <t>3,53; 7,03</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,09; 6,22</t>
+          <t>3,19; 6,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,33</t>
+          <t>1,63; 4,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,77</t>
+          <t>2,11; 4,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,84</t>
+          <t>1,54; 5,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,73; 9,96</t>
+          <t>6,08; 9,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,32; 8,99</t>
+          <t>5,42; 9,1</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,52; 10,59</t>
+          <t>6,43; 10,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,29; 13,88</t>
+          <t>9,13; 13,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,93; 7,46</t>
+          <t>4,97; 7,41</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3,99; 6,25</t>
+          <t>3,93; 6,2</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4,72; 7,3</t>
+          <t>4,67; 7,25</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>4,45; 8,81</t>
+          <t>4,44; 8,7</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,11; 3,2</t>
+          <t>2,08; 3,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,66; 4,05</t>
+          <t>2,71; 4,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,94; 4,19</t>
+          <t>2,96; 4,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,16; 4,86</t>
+          <t>3,21; 4,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,53; 6,08</t>
+          <t>4,61; 6,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,26; 8,1</t>
+          <t>6,35; 8,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,78; 8,59</t>
+          <t>6,72; 8,55</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,52; 9,0</t>
+          <t>6,33; 8,89</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,49; 4,43</t>
+          <t>3,54; 4,54</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>4,75; 5,93</t>
+          <t>4,73; 5,89</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>5,0; 6,15</t>
+          <t>5,02; 6,15</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,23; 6,77</t>
+          <t>5,29; 6,77</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido tranquilizantes en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6128</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18282</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>10580</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>8777</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>17853</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>23769</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>19520</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11020</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>23981</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>42051</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>30100</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>19797</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2637; 12407</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10803; 29615</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5429; 19554</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4084; 16075</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>11350; 28737</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>15448; 34721</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11880; 29636</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7003; 16012</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>15373; 33702</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>30463; 56840</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>19396; 42896</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>13351; 29007</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>11911</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>18576</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16075</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>32024</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>33419</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>44255</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>37055</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>50447</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>45330</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>62831</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>53130</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>82471</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6781; 20188</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9910; 32467</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8608; 25491</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>21333; 47779</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>23385; 46083</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>31538; 58872</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>25985; 50768</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>39285; 61138</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>34237; 60985</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>47830; 81393</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>40091; 68286</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>67245; 100603</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6081</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12232</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9937</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>14500</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8194</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>19466</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>26887</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>20426</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>29404</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>41387</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2117; 11939</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6718; 23044</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5119; 17586</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8715; 23434</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5356</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4054; 15846</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11905; 27998</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19598; 35017</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3014; 15066</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12239; 33103</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>19924; 40913</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>33029; 54667</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4531</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8715</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>15762</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7824</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>14581</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>39749</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>32794</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>14996</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>19112</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>48463</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>48556</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>22820</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1057; 11554</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3724; 18512</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>9360; 26085</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2893; 16681</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8531; 22966</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>29439; 53603</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>23252; 45683</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>8357; 24312</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>11955; 29463</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>36108; 64073</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>36499; 65520</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>15126; 34306</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4617</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8592</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>9421</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4790</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12194</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>34478</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>28708</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>21874</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>16810</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>43070</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>38129</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>26665</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>983; 10332</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4180; 16460</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4615; 16586</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2382; 8612</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6636; 19645</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>24771; 47390</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>19841; 41348</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>17352; 27491</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>10261; 25367</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>31852; 57030</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>27709; 51038</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>20700; 32941</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1892</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>7004</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>8314</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>13948</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9164</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>15060</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>14495</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>27784</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>11056</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>22064</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>22809</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>41732</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6524</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2988; 13570</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3713; 16950</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>8702; 20581</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4105; 16408</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>8161; 24014</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>7962; 23195</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>21204; 35030</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5991; 19367</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>14418; 35271</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>14601; 34226</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>33643; 52797</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>16090</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>20176</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>22889</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>23384</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>31959</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>28595</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>49355</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>59236</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>48049</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>48770</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>72244</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>82621</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>9283; 26475</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>12314; 31988</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>15080; 35761</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>15576; 32820</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>22136; 44284</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>19620; 41986</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>36309; 66501</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>30075; 83493</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>36566; 63152</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>36290; 67751</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>57612; 92020</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>52060; 103583</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>33303</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>21209</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>25187</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>36466</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>60042</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>58713</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>69264</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>78643</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>93344</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>79921</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>94450</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>115110</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>23699; 46959</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>12673; 32350</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>16390; 37905</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>14272; 53994</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>47608; 78095</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>44560; 74868</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>53098; 86787</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>65234; 98884</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>75831; 113118</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>62792; 99149</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>74933; 116265</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>72953; 143048</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>84552</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>114785</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>118165</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>141714</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>180138</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>252812</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>270657</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>290887</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>264690</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>367597</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>388822</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>432601</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>68210; 105061</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>92671; 137543</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>100365; 144005</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>111138; 169391</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>155861; 207406</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>225291; 283634</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>238343; 303133</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>231360; 325044</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>235596; 301929</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>329798; 410502</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>348475; 426976</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>376179; 481945</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>